--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Ehsan</t>
   </si>
@@ -41,27 +41,6 @@
     <t>general program</t>
   </si>
   <si>
-    <t>Crime rates by zipcode by type for rolling year</t>
-  </si>
-  <si>
-    <t>Victims by gender by type for rolling year</t>
-  </si>
-  <si>
-    <t>Crime frequency by time of day by type for rolling year</t>
-  </si>
-  <si>
-    <t>Crime by time of year by type for rolling year</t>
-  </si>
-  <si>
-    <t>Top 5 lowest crime zipcodes by type for rolling year</t>
-  </si>
-  <si>
-    <t>Top 5 highest crime zipcodes by type for rolling year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crime rates by zipcode by type for rolling year </t>
-  </si>
-  <si>
     <t>crime dataframe of JSON</t>
   </si>
   <si>
@@ -98,9 +77,6 @@
     <t>same: versus home value</t>
   </si>
   <si>
-    <t>same as above: 5 years</t>
-  </si>
-  <si>
     <t>conclusions</t>
   </si>
   <si>
@@ -120,6 +96,36 @@
   </si>
   <si>
     <t>pickle</t>
+  </si>
+  <si>
+    <t>Crime rates by zipcode by type for all years (except current)</t>
+  </si>
+  <si>
+    <t>Crime frequency by time of day by type for all years (except current)</t>
+  </si>
+  <si>
+    <t>Crime by time of year by type for all years (except current)</t>
+  </si>
+  <si>
+    <t>Top 5 lowest crime zipcodes by type for all years (except current)</t>
+  </si>
+  <si>
+    <t>Top 5 highest crime zipcodes by type for all years (except current)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime rates by zipcode by type for all years (except current) </t>
+  </si>
+  <si>
+    <t>Violent Crime rates by zipcode by type for all years (except current)</t>
+  </si>
+  <si>
+    <t>Violent crime victims by gender for all years (except current)</t>
+  </si>
+  <si>
+    <t>Violent crime victims by descent for all years (except current)</t>
+  </si>
+  <si>
+    <t>Violent crime victims for all years (except current)</t>
   </si>
 </sst>
 </file>
@@ -141,12 +147,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,11 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,204 +489,212 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
@@ -701,6 +725,18 @@
     </row>
     <row r="38" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
